--- a/Thiaminase Activity Assays.12.15.2022/RERUNS.12.20.22.Thiaminase.Assay.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/RERUNS.12.20.22.Thiaminase.Assay.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thiaminase Activity Assays.12.15.2022/RERUNS.12.20.22.Thiaminase.Assay.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/RERUNS.12.20.22.Thiaminase.Assay.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Vial ID</t>
   </si>
@@ -207,6 +207,33 @@
   </si>
   <si>
     <t>Sample (g)</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Auke Bay</t>
+  </si>
+  <si>
+    <t>Southern Bering Sea</t>
+  </si>
+  <si>
+    <t>SEBS2021</t>
+  </si>
+  <si>
+    <t>Brothers Islands 2021</t>
+  </si>
+  <si>
+    <t>Northern Bering Sea</t>
+  </si>
+  <si>
+    <t>NBS2021</t>
+  </si>
+  <si>
+    <t>Eagle Beach (Juneau)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,14 +280,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +594,11 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +614,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -590,8 +635,17 @@
         <f>D2*2.5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,8 +662,17 @@
         <f t="shared" ref="E3:E27" si="0">D3*2.5</f>
         <v>2.6500000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,8 +689,17 @@
         <f t="shared" si="0"/>
         <v>1.9500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -644,8 +716,17 @@
         <f t="shared" si="0"/>
         <v>2.0250000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -662,8 +743,17 @@
         <f t="shared" si="0"/>
         <v>1.3250000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,8 +770,17 @@
         <f t="shared" si="0"/>
         <v>2.0749999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,8 +797,17 @@
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -716,8 +824,17 @@
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,8 +851,14 @@
         <f t="shared" si="0"/>
         <v>2.9499999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,8 +875,17 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -770,8 +902,17 @@
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -788,8 +929,17 @@
         <f t="shared" si="0"/>
         <v>2.1749999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -806,8 +956,17 @@
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -824,8 +983,17 @@
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,8 +1010,17 @@
         <f t="shared" si="0"/>
         <v>2.1749999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -860,8 +1037,17 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -878,8 +1064,14 @@
         <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -896,8 +1088,17 @@
         <f t="shared" si="0"/>
         <v>3.0249999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -914,8 +1115,17 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -932,8 +1142,14 @@
         <f t="shared" si="0"/>
         <v>1.9500000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -950,8 +1166,14 @@
         <f t="shared" si="0"/>
         <v>1.675</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -968,8 +1190,14 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -986,8 +1214,14 @@
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1004,8 +1238,14 @@
         <f t="shared" si="0"/>
         <v>1.675</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1022,8 +1262,14 @@
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1039,6 +1285,12 @@
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
